--- a/case-studies/cs1_PE_v1_BLANK.xlsx
+++ b/case-studies/cs1_PE_v1_BLANK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngraves/Dropbox/teaching/cea-workshop-vital/case-studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngraves/Dropbox/teaching/bogota-vital-strategies/case-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EC9FB-D3BC-1D43-B29A-C9A29631647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E121615-316C-AC44-A159-37D0AD683DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="p_pe">parameters!$B$3</definedName>
     <definedName name="u_healthy">parameters!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,10 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
-  <si>
-    <t>Suspected PE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>param</t>
   </si>
@@ -98,18 +95,12 @@
     <t>p_fatal_recurrent_pe_with_ac</t>
   </si>
   <si>
-    <t>Probability of recurrent PE leading to fatal bleed/hemmorhage WITH anti-coagulant</t>
-  </si>
-  <si>
     <t>Probability of fatal bleed due WITH anti-coagulant</t>
   </si>
   <si>
     <t>p_fatal_recurrent_pe</t>
   </si>
   <si>
-    <t>Probability of recurrent PE leading to fatal bleed/hemmorhage with no anti-coagulant</t>
-  </si>
-  <si>
     <t>c_healthy</t>
   </si>
   <si>
@@ -128,27 +119,12 @@
     <t>Population size</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>No PE</t>
-  </si>
-  <si>
     <t>Survive</t>
   </si>
   <si>
-    <t>Fatal Hem</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>Anticoagulant</t>
-  </si>
-  <si>
-    <t>No Anti-coagulant</t>
-  </si>
-  <si>
     <t>Outcome</t>
   </si>
   <si>
@@ -164,34 +140,85 @@
     <t>Effectiveness (Survival)</t>
   </si>
   <si>
-    <t>Expected Survival</t>
-  </si>
-  <si>
-    <t>Expected Costs</t>
-  </si>
-  <si>
-    <t>Anti-coagulant therapy</t>
-  </si>
-  <si>
-    <t>No Anti-coagulant therapy</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Expected Deaths (number)</t>
-  </si>
-  <si>
-    <t>Fatal PE</t>
-  </si>
-  <si>
     <t>Cost of fatal PE</t>
   </si>
   <si>
-    <t>Recurrent PE; Die</t>
-  </si>
-  <si>
-    <t>No recurrent PE</t>
+    <t>Tamaño de la población</t>
+  </si>
+  <si>
+    <t>Probabilidad de embolia pulmonar</t>
+  </si>
+  <si>
+    <t>Probabilidad de hemorragia mortal con anticoagulante</t>
+  </si>
+  <si>
+    <t>Sospecha de EP</t>
+  </si>
+  <si>
+    <t>Anticoagulante</t>
+  </si>
+  <si>
+    <t>No Anticoagulante</t>
+  </si>
+  <si>
+    <t>Sobrevivir</t>
+  </si>
+  <si>
+    <t>Hemorragia mortal</t>
+  </si>
+  <si>
+    <t>Probability of recurrent fatal PE WITH anti-coagulant</t>
+  </si>
+  <si>
+    <t>Probability of recurrent fatal PE with no anti-coagulant</t>
+  </si>
+  <si>
+    <t>Probabilidad de EP mortal recurrente CON anticoagulante</t>
+  </si>
+  <si>
+    <t>Probabilidad de EP mortal recurrente sin anticoagulante</t>
+  </si>
+  <si>
+    <t>Costo de la EP no mortal</t>
+  </si>
+  <si>
+    <t>Costo de la EP mortal</t>
+  </si>
+  <si>
+    <t>Costo del anticoagulante</t>
+  </si>
+  <si>
+    <t>Costo del estado de salud perfecta</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>No EP</t>
+  </si>
+  <si>
+    <t>EP mortal</t>
+  </si>
+  <si>
+    <t>Muerto</t>
+  </si>
+  <si>
+    <t>Estrategia</t>
+  </si>
+  <si>
+    <t>Supervivencia prevista</t>
+  </si>
+  <si>
+    <t>Muertes previstas (número)</t>
+  </si>
+  <si>
+    <t>Costos previstos</t>
+  </si>
+  <si>
+    <t>Terapia anticoagulante</t>
+  </si>
+  <si>
+    <t>No Terapia anticoagulante</t>
   </si>
 </sst>
 </file>
@@ -200,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -344,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,70 +384,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -836,7 +852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -942,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1084,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,112 +1111,144 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1215,8 +1263,8 @@
   </sheetPr>
   <dimension ref="C1:R53"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,495 +1284,356 @@
     <col min="14" max="14" width="16.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="2.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="3.5" style="15" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:18" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
-        <v>29</v>
+      <c r="N1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="6:18" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="6" t="s">
-        <v>36</v>
+      <c r="L3" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="6:18" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="29"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="L5" s="9"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="25"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="L6" s="8"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="J7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="J7" s="6"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="6:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="I8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="6:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="I9" s="22"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="I10" s="9" t="e" cm="1">
+      <c r="I10" s="8" t="e" cm="1">
         <f t="array" ref="I10">parameter_value</f>
         <v>#NAME?</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="8"/>
-      <c r="L11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="6:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="28" t="s">
+      <c r="F12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="6:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="22"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="22"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="6:18" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="L16" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="7"/>
+      <c r="I18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="3:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="7"/>
+      <c r="I19" s="23"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="3:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="L23" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F25" s="26"/>
+      <c r="L25" s="8"/>
+      <c r="N25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C29" s="22"/>
+      <c r="F29" s="7"/>
+      <c r="L29" s="25"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F30" s="7"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+      <c r="L31" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="N33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F35" s="7"/>
+      <c r="I35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="6:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="6:18" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="L16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="15"/>
-    </row>
-    <row r="17" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="8"/>
-      <c r="I18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="3:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="8"/>
-      <c r="I19" s="10"/>
-      <c r="L19" s="8"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="D20" s="15"/>
-      <c r="F20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="3:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="8"/>
-      <c r="L23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="3:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="29"/>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F25" s="12"/>
-      <c r="L25" s="9"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="25"/>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F26" s="12"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F27" s="13"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C29" s="6"/>
-      <c r="F29" s="8"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="R29" s="15"/>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F30" s="8"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="8"/>
-      <c r="L31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="29"/>
-    </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="25"/>
-    </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F34" s="8"/>
-      <c r="J34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="R34" s="15"/>
-    </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F35" s="8"/>
-      <c r="I35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="R35" s="15"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="6:18" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="8"/>
-      <c r="I36" s="6"/>
-      <c r="L36" s="8"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="R36" s="15"/>
+      <c r="F36" s="7"/>
+      <c r="I36" s="22"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F37" s="8"/>
-      <c r="I37" s="9"/>
-      <c r="L37" s="8"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="R37" s="15"/>
+      <c r="F37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="L38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="R38" s="15"/>
+      <c r="F38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="L38" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="29"/>
+      <c r="F39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="L40" s="9"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="25"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="N40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="14"/>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F41" s="10"/>
-      <c r="I41" s="8"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F42" s="14"/>
-      <c r="I42" s="8"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="F42" s="10"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F43" s="15"/>
-      <c r="I43" s="8"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="I43" s="7"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F44" s="15"/>
-      <c r="I44" s="8"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="R44" s="15"/>
+      <c r="I44" s="7"/>
+      <c r="L44" s="21"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F45" s="15"/>
-      <c r="I45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="R45" s="15"/>
+      <c r="I45" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="15"/>
-      <c r="I46" s="10"/>
-      <c r="L46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="R46" s="15"/>
+      <c r="I46" s="23"/>
+      <c r="L46" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="15"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="29"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="15"/>
     </row>
     <row r="48" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="25"/>
-    </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F49" s="15"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F53" s="11"/>
+      <c r="N48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="L46:L47"/>
@@ -1734,15 +1643,6 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="F39:F41"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F12:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1756,8 +1656,8 @@
   </sheetPr>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,35 +1668,35 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>35</v>
+    <row r="2" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/case-studies/cs1_PE_v1_BLANK.xlsx
+++ b/case-studies/cs1_PE_v1_BLANK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngraves/Dropbox/teaching/cea-workshop-vital/case-studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngraves/Dropbox/teaching/bogota-vital-strategies/case-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6EC9FB-D3BC-1D43-B29A-C9A29631647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3ECF1B-4CF2-0045-88E9-DA7FD7818EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20020" activeTab="2" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="p_pe">parameters!$B$3</definedName>
     <definedName name="u_healthy">parameters!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,10 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
-  <si>
-    <t>Suspected PE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>param</t>
   </si>
@@ -98,18 +95,12 @@
     <t>p_fatal_recurrent_pe_with_ac</t>
   </si>
   <si>
-    <t>Probability of recurrent PE leading to fatal bleed/hemmorhage WITH anti-coagulant</t>
-  </si>
-  <si>
     <t>Probability of fatal bleed due WITH anti-coagulant</t>
   </si>
   <si>
     <t>p_fatal_recurrent_pe</t>
   </si>
   <si>
-    <t>Probability of recurrent PE leading to fatal bleed/hemmorhage with no anti-coagulant</t>
-  </si>
-  <si>
     <t>c_healthy</t>
   </si>
   <si>
@@ -128,27 +119,12 @@
     <t>Population size</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>No PE</t>
-  </si>
-  <si>
     <t>Survive</t>
   </si>
   <si>
-    <t>Fatal Hem</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>Anticoagulant</t>
-  </si>
-  <si>
-    <t>No Anti-coagulant</t>
-  </si>
-  <si>
     <t>Outcome</t>
   </si>
   <si>
@@ -164,34 +140,85 @@
     <t>Effectiveness (Survival)</t>
   </si>
   <si>
-    <t>Expected Survival</t>
-  </si>
-  <si>
-    <t>Expected Costs</t>
-  </si>
-  <si>
-    <t>Anti-coagulant therapy</t>
-  </si>
-  <si>
-    <t>No Anti-coagulant therapy</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Expected Deaths (number)</t>
-  </si>
-  <si>
-    <t>Fatal PE</t>
-  </si>
-  <si>
     <t>Cost of fatal PE</t>
   </si>
   <si>
-    <t>Recurrent PE; Die</t>
-  </si>
-  <si>
-    <t>No recurrent PE</t>
+    <t>Tamaño de la población</t>
+  </si>
+  <si>
+    <t>Probabilidad de embolia pulmonar</t>
+  </si>
+  <si>
+    <t>Probabilidad de hemorragia mortal con anticoagulante</t>
+  </si>
+  <si>
+    <t>Sospecha de EP</t>
+  </si>
+  <si>
+    <t>Anticoagulante</t>
+  </si>
+  <si>
+    <t>No Anticoagulante</t>
+  </si>
+  <si>
+    <t>Sobrevivir</t>
+  </si>
+  <si>
+    <t>Hemorragia mortal</t>
+  </si>
+  <si>
+    <t>Probability of recurrent fatal PE WITH anti-coagulant</t>
+  </si>
+  <si>
+    <t>Probability of recurrent fatal PE with no anti-coagulant</t>
+  </si>
+  <si>
+    <t>Probabilidad de EP mortal recurrente CON anticoagulante</t>
+  </si>
+  <si>
+    <t>Probabilidad de EP mortal recurrente sin anticoagulante</t>
+  </si>
+  <si>
+    <t>Costo de la EP no mortal</t>
+  </si>
+  <si>
+    <t>Costo de la EP mortal</t>
+  </si>
+  <si>
+    <t>Costo del anticoagulante</t>
+  </si>
+  <si>
+    <t>Costo del estado de salud perfecta</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>No EP</t>
+  </si>
+  <si>
+    <t>EP mortal</t>
+  </si>
+  <si>
+    <t>Muerto</t>
+  </si>
+  <si>
+    <t>Estrategia</t>
+  </si>
+  <si>
+    <t>Supervivencia prevista</t>
+  </si>
+  <si>
+    <t>Muertes previstas (número)</t>
+  </si>
+  <si>
+    <t>Costos previstos</t>
+  </si>
+  <si>
+    <t>Terapia anticoagulante</t>
+  </si>
+  <si>
+    <t>No Terapia anticoagulante</t>
   </si>
 </sst>
 </file>
@@ -200,7 +227,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -344,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,70 +384,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -836,7 +852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -942,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1084,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1095,112 +1111,144 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1215,8 +1263,8 @@
   </sheetPr>
   <dimension ref="C1:R53"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,495 +1284,356 @@
     <col min="14" max="14" width="16.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="2.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="3.5" style="15" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:18" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20" t="s">
-        <v>29</v>
+      <c r="N1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="6:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="6:18" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="6" t="s">
-        <v>36</v>
+      <c r="L3" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="6:18" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="29"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="L5" s="9"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="25"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="L6" s="8"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="J7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="J7" s="6"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="6:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="I8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="6:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="I9" s="22"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="I10" s="9" t="e" cm="1">
+      <c r="I10" s="8" t="e" cm="1">
         <f t="array" ref="I10">parameter_value</f>
         <v>#NAME?</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="8"/>
-      <c r="L11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="I11" s="7"/>
+      <c r="L11" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="6:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="28" t="s">
+      <c r="F12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="6:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="22"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="22"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="6:18" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="L16" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="7"/>
+      <c r="I18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="3:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="7"/>
+      <c r="I19" s="23"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="3:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="L23" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="7"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F25" s="26"/>
+      <c r="L25" s="8"/>
+      <c r="N25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C29" s="22"/>
+      <c r="F29" s="7"/>
+      <c r="L29" s="25"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F30" s="7"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+      <c r="L31" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="15"/>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="N33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F35" s="7"/>
+      <c r="I35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="6:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="6:18" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="L16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="15"/>
-    </row>
-    <row r="17" spans="3:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="3:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="8"/>
-      <c r="I18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="3:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="8"/>
-      <c r="I19" s="10"/>
-      <c r="L19" s="8"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="D20" s="15"/>
-      <c r="F20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="3:18" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="8"/>
-      <c r="L23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="3:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="29"/>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F25" s="12"/>
-      <c r="L25" s="9"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="25"/>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F26" s="12"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F27" s="13"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C29" s="6"/>
-      <c r="F29" s="8"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="R29" s="15"/>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F30" s="8"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="8"/>
-      <c r="L31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="R31" s="15"/>
-    </row>
-    <row r="32" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="29"/>
-    </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F33" s="8"/>
-      <c r="L33" s="9"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="25"/>
-    </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F34" s="8"/>
-      <c r="J34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="R34" s="15"/>
-    </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F35" s="8"/>
-      <c r="I35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="R35" s="15"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="6:18" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="8"/>
-      <c r="I36" s="6"/>
-      <c r="L36" s="8"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="R36" s="15"/>
+      <c r="F36" s="7"/>
+      <c r="I36" s="22"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F37" s="8"/>
-      <c r="I37" s="9"/>
-      <c r="L37" s="8"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="R37" s="15"/>
+      <c r="F37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="L38" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="R38" s="15"/>
+      <c r="F38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="L38" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="29"/>
+      <c r="F39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="15"/>
     </row>
     <row r="40" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="L40" s="9"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="25"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="N40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="14"/>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F41" s="10"/>
-      <c r="I41" s="8"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="F41" s="23"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F42" s="14"/>
-      <c r="I42" s="8"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="R42" s="15"/>
+      <c r="F42" s="10"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F43" s="15"/>
-      <c r="I43" s="8"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="R43" s="15"/>
+      <c r="I43" s="7"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F44" s="15"/>
-      <c r="I44" s="8"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="R44" s="15"/>
+      <c r="I44" s="7"/>
+      <c r="L44" s="21"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F45" s="15"/>
-      <c r="I45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="R45" s="15"/>
+      <c r="I45" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" s="14"/>
     </row>
     <row r="46" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="15"/>
-      <c r="I46" s="10"/>
-      <c r="L46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="R46" s="15"/>
+      <c r="I46" s="23"/>
+      <c r="L46" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="15"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="29"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="15"/>
     </row>
     <row r="48" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="25"/>
-    </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F49" s="15"/>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F53" s="11"/>
+      <c r="N48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="L46:L47"/>
@@ -1734,15 +1643,6 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="F39:F41"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F12:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1756,8 +1656,8 @@
   </sheetPr>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,35 +1668,35 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>35</v>
+    <row r="2" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/case-studies/cs1_PE_v1_BLANK.xlsx
+++ b/case-studies/cs1_PE_v1_BLANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngraves/Dropbox/teaching/bogota-vital-strategies/case-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3ECF1B-4CF2-0045-88E9-DA7FD7818EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FC553-DD5D-2947-8468-E8E57B8A74BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20020" activeTab="2" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -417,26 +417,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,9 +1372,9 @@
         <v>27</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="L12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="21" t="s">
         <v>40</v>
       </c>
       <c r="O12" s="5"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="19" spans="3:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="7"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="24"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
     </row>
     <row r="24" spans="3:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="6"/>
       <c r="N24" s="15"/>
       <c r="P24" s="15"/>
@@ -1466,7 +1466,7 @@
       <c r="R24" s="15"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F25" s="26"/>
+      <c r="F25" s="23"/>
       <c r="L25" s="8"/>
       <c r="N25" s="14"/>
       <c r="P25" s="14"/>
@@ -1474,7 +1474,7 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F26" s="26"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F27" s="9"/>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="D28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="L28" s="25"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="F29" s="7"/>
-      <c r="L29" s="25"/>
+      <c r="L29" s="27"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>28</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="6"/>
       <c r="N39" s="15"/>
       <c r="P39" s="15"/>
@@ -1572,7 +1572,7 @@
       <c r="R40" s="14"/>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F41" s="23"/>
+      <c r="F41" s="24"/>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.2">
@@ -1581,11 +1581,11 @@
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
-      <c r="L43" s="21"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
-      <c r="L44" s="21"/>
+      <c r="L44" s="25"/>
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.2">
@@ -1595,8 +1595,8 @@
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="23"/>
-      <c r="L46" s="21" t="s">
+      <c r="I46" s="24"/>
+      <c r="L46" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="6"/>
       <c r="N47" s="15"/>
       <c r="P47" s="15"/>
@@ -1618,23 +1618,13 @@
       <c r="R48" s="14"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="21"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="21"/>
+      <c r="F53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L43:L44"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="F52:F53"/>
@@ -1643,6 +1633,16 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="F39:F41"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L23:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1656,7 +1656,7 @@
   </sheetPr>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>

--- a/case-studies/cs1_PE_v1_BLANK.xlsx
+++ b/case-studies/cs1_PE_v1_BLANK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngraves/Dropbox/teaching/bogota-vital-strategies/case-studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E121615-316C-AC44-A159-37D0AD683DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FC553-DD5D-2947-8468-E8E57B8A74BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{199646B0-E4D7-5E4D-B717-C3E52A2D89BD}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -417,26 +417,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,8 +1263,8 @@
   </sheetPr>
   <dimension ref="C1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,9 +1372,9 @@
         <v>27</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="L12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="21" t="s">
         <v>40</v>
       </c>
       <c r="O12" s="5"/>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="19" spans="3:18" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="7"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="24"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
     </row>
     <row r="24" spans="3:18" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
-      <c r="L24" s="23"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="6"/>
       <c r="N24" s="15"/>
       <c r="P24" s="15"/>
@@ -1466,7 +1466,7 @@
       <c r="R24" s="15"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F25" s="26"/>
+      <c r="F25" s="23"/>
       <c r="L25" s="8"/>
       <c r="N25" s="14"/>
       <c r="P25" s="14"/>
@@ -1474,7 +1474,7 @@
       <c r="R25" s="14"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="F26" s="26"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F27" s="9"/>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="D28" s="6"/>
       <c r="F28" s="7"/>
-      <c r="L28" s="25"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="F29" s="7"/>
-      <c r="L29" s="25"/>
+      <c r="L29" s="27"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>28</v>
       </c>
       <c r="I39" s="7"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="6"/>
       <c r="N39" s="15"/>
       <c r="P39" s="15"/>
@@ -1572,7 +1572,7 @@
       <c r="R40" s="14"/>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F41" s="23"/>
+      <c r="F41" s="24"/>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.2">
@@ -1581,11 +1581,11 @@
     </row>
     <row r="43" spans="6:18" x14ac:dyDescent="0.2">
       <c r="I43" s="7"/>
-      <c r="L43" s="21"/>
+      <c r="L43" s="25"/>
     </row>
     <row r="44" spans="6:18" x14ac:dyDescent="0.2">
       <c r="I44" s="7"/>
-      <c r="L44" s="21"/>
+      <c r="L44" s="25"/>
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="6:18" x14ac:dyDescent="0.2">
@@ -1595,8 +1595,8 @@
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="6:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="23"/>
-      <c r="L46" s="21" t="s">
+      <c r="I46" s="24"/>
+      <c r="L46" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="6"/>
       <c r="N47" s="15"/>
       <c r="P47" s="15"/>
@@ -1618,23 +1618,13 @@
       <c r="R48" s="14"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="21"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="21"/>
+      <c r="F53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L43:L44"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="F52:F53"/>
@@ -1643,6 +1633,16 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="F39:F41"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L23:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1656,8 +1656,8 @@
   </sheetPr>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
